--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2936.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2936.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9536908494879288</v>
+        <v>1.510453462600708</v>
       </c>
       <c r="B1">
-        <v>1.778136307884626</v>
+        <v>1.65189802646637</v>
       </c>
       <c r="C1">
-        <v>6.990063194905352</v>
+        <v>3.788183450698853</v>
       </c>
       <c r="D1">
-        <v>3.267325734336859</v>
+        <v>2.294786691665649</v>
       </c>
       <c r="E1">
-        <v>1.489111551000954</v>
+        <v>0.8325689435005188</v>
       </c>
     </row>
   </sheetData>
